--- a/Documentation/JDB_Cyril.xlsx
+++ b/Documentation/JDB_Cyril.xlsx
@@ -19,9 +19,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Début de mise en place des tests utitaires</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Heure fin</t>
+  </si>
+  <si>
+    <t>Heure début</t>
+  </si>
+  <si>
+    <t>Mise en place de test unitaire et fin de mise en place des commentairesdu morpion et players</t>
   </si>
 </sst>
 </file>
@@ -57,9 +72,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,24 +356,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="125.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="139" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43438</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43441</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
